--- a/medicine/Pharmacie/Tipranavir/Tipranavir.xlsx
+++ b/medicine/Pharmacie/Tipranavir/Tipranavir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tipranavir, vendu sous le nom de marque Aptivus, est un médicament utilisé pour traiter le VIH/SIDA en association avec le ritonavir, entre autres  [1].
+Le tipranavir, vendu sous le nom de marque Aptivus, est un médicament utilisé pour traiter le VIH/SIDA en association avec le ritonavir, entre autres  .
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de la protéase  qui bloque la protéase du virus de l'immunodéficience humaine [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de la protéase  qui bloque la protéase du virus de l'immunodéficience humaine .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé avec des médicaments similaires qui ne sont pas efficaces[1]. Il se prend par voie orale[1]. Ce médicament est utilisé chez les personnes âgées de plus de deux ans[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé avec des médicaments similaires qui ne sont pas efficaces. Il se prend par voie orale. Ce médicament est utilisé chez les personnes âgées de plus de deux ans.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament  comprennent la diarrhée, les nausées, la fièvre, la fatigue et les maux de tête; [1] d'autres effets secondaires peuvent inclure des saignements intracrâniens, une inflammation du foie, une insuffisance hépatique, une glycémie élevée et des taux de lipides anormaux [1]. Il s'agit d'un inhibiteur de la protéase  qui bloque la protéase du VIH [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament  comprennent la diarrhée, les nausées, la fièvre, la fatigue et les maux de tête;  d'autres effets secondaires peuvent inclure des saignements intracrâniens, une inflammation du foie, une insuffisance hépatique, une glycémie élevée et des taux de lipides anormaux . Il s'agit d'un inhibiteur de la protéase  qui bloque la protéase du VIH .
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médicament a été approuvé pour un usage médical aux États-Unis et en Europe en 2005[1],[2]. Au Royaume-Uni, cela coûte au NHS environ 440 livre sterling  par mois à partir de 2021[3]. Aux États-Unis, ce montant coûte environ 1 800 dollars américains[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médicament a été approuvé pour un usage médical aux États-Unis et en Europe en 2005,. Au Royaume-Uni, cela coûte au NHS environ 440 livre sterling  par mois à partir de 2021. Aux États-Unis, ce montant coûte environ 1 800 dollars américains.
 </t>
         </is>
       </c>
